--- a/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP9 codes.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP9 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="72">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -229,7 +229,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:06:59</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:45:36</t>
   </si>
 </sst>
 </file>
@@ -13987,11 +13987,11 @@
       <c r="UJ7" t="n" s="10">
         <v>121.2</v>
       </c>
-      <c r="UK7" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL7" t="s" s="10">
-        <v>67</v>
+      <c r="UK7" t="n" s="10">
+        <v>122.5</v>
+      </c>
+      <c r="UL7" t="n" s="10">
+        <v>130.9</v>
       </c>
       <c r="UM7" t="s" s="10">
         <v>67</v>
@@ -15687,11 +15687,11 @@
       <c r="UJ8" t="n" s="10">
         <v>108.1</v>
       </c>
-      <c r="UK8" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="UL8" t="s" s="10">
-        <v>67</v>
+      <c r="UK8" t="n" s="10">
+        <v>108.1</v>
+      </c>
+      <c r="UL8" t="n" s="10">
+        <v>109.9</v>
       </c>
       <c r="UM8" t="s" s="10">
         <v>67</v>
@@ -15785,7 +15785,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:07:05&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:45:41&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP9 codes.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP9 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="72">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -229,7 +229,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:45:36</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:56:49</t>
   </si>
 </sst>
 </file>
@@ -13993,8 +13993,8 @@
       <c r="UL7" t="n" s="10">
         <v>130.9</v>
       </c>
-      <c r="UM7" t="s" s="10">
-        <v>67</v>
+      <c r="UM7" t="n" s="10">
+        <v>130.9</v>
       </c>
       <c r="UN7" t="s" s="10">
         <v>67</v>
@@ -15693,8 +15693,8 @@
       <c r="UL8" t="n" s="10">
         <v>109.9</v>
       </c>
-      <c r="UM8" t="s" s="10">
-        <v>67</v>
+      <c r="UM8" t="n" s="10">
+        <v>109.8</v>
       </c>
       <c r="UN8" t="s" s="10">
         <v>67</v>
@@ -15785,7 +15785,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:45:41&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:56:54&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>